--- a/Small Instances/Small3.xlsx
+++ b/Small Instances/Small3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/Small Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Small Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83927983-2FB2-E345-BAE0-E2B042D2304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB899AC-58AA-4AFC-8159-CEACC65F5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instances" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Medium" sheetId="6" r:id="rId6"/>
     <sheet name="Large" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="113">
   <si>
     <t>Rider</t>
   </si>
@@ -1195,22 +1193,22 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G4" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,54 +1252,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kolltveit</v>
       </c>
       <c r="C2" s="3">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D2" s="4">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.352223000000002</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F2" si="0">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E2:F2" ca="1" si="1">C2*111.021</f>
+        <v>564.85408707299996</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.3641496830005</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="69">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K2" si="1">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K2" ca="1" si="3">H2*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1326,54 +1326,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C3" s="3">
-        <f>_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:F3" si="3">C3*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E3:F3" ca="1" si="5">C3*111.021</f>
+        <v>566.88266278499998</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="3"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H6" si="4">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H3:H6" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="7">
-        <f>_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:K3" si="5">H3*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J3:K3" ca="1" si="7">H3*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="5"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" ref="M3">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1400,56 +1402,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f t="shared" ref="C4:C6" ca="1" si="8">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:F4" ca="1" si="9">C4*111.021</f>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="69">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -1470,36 +1472,36 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="69">
@@ -1519,7 +1521,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -1540,56 +1542,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="69">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -1610,7 +1612,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1628,7 +1630,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1646,7 +1648,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1664,7 +1666,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1682,7 +1684,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1701,7 +1703,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1722,7 +1724,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1731,7 +1733,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -1741,7 +1743,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1751,7 +1753,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -1761,7 +1763,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -1784,7 +1786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -1809,7 +1811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -1834,7 +1836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -1865,7 +1867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -1896,7 +1898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -1928,7 +1930,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -1956,7 +1958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -1984,7 +1986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2012,7 +2014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2040,7 +2042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2068,7 +2070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2096,7 +2098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2124,7 +2126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2152,7 +2154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2180,7 +2182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2206,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -2234,7 +2236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2262,7 +2264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -2290,7 +2292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -2318,7 +2320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -2346,7 +2348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -2372,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -2400,7 +2402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -2428,7 +2430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2456,7 +2458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -2484,7 +2486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -2561,15 +2563,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -2589,82 +2591,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -2738,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2851,9 +2853,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -2868,7 +2870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -2902,7 +2904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -3423,9 +3425,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3558,7 +3560,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3605,19 +3607,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
         <v>90</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
@@ -3829,7 +3831,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="62" t="s">
         <v>92</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="62" t="s">
         <v>93</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
       <c r="K8" s="61"/>
@@ -3963,7 +3965,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="61"/>
       <c r="G9" s="61"/>
       <c r="K9" s="61"/>
@@ -3978,7 +3980,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
       <c r="K10" s="61"/>
@@ -3993,7 +3995,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>68</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4048,7 +4050,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="62" t="s">
         <v>90</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="3" t="e">
@@ -4143,7 +4145,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="71"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="62" t="s">
         <v>92</v>
       </c>
@@ -4193,7 +4195,7 @@
       </c>
       <c r="O15" s="71"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="62" t="s">
         <v>93</v>
       </c>
@@ -4243,7 +4245,7 @@
       </c>
       <c r="O16" s="71"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="62" t="s">
         <v>96</v>
       </c>
@@ -4293,7 +4295,7 @@
       </c>
       <c r="O17" s="71"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="62" t="s">
         <v>97</v>
       </c>
@@ -4343,7 +4345,7 @@
       </c>
       <c r="O18" s="71"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E19" s="60"/>
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
@@ -4365,7 +4367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E20" s="60"/>
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
@@ -4389,7 +4391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E21" s="60"/>
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
@@ -4413,7 +4415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>69</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
@@ -4519,7 +4521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>98</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -4620,7 +4622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>92</v>
       </c>
@@ -4687,7 +4689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>93</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E29" s="60"/>
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
@@ -4848,7 +4850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E30" s="60"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
@@ -4875,7 +4877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="E31" s="60"/>
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
@@ -4902,7 +4904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>70</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>90</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="E35" s="60"/>
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
@@ -5097,7 +5099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>96</v>
       </c>
@@ -5298,7 +5300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>100</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5482,7 +5484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5534,7 +5536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5586,7 +5588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
         <v>#NAME?</v>
@@ -5638,7 +5640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
@@ -5764,13 +5766,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" ref="C47:C56" ca="1" si="79">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D47" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5836,7 +5838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
@@ -5890,13 +5892,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D49" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5944,13 +5946,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="D50" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5998,13 +6000,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="D51" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6053,13 +6055,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="D52" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6108,13 +6110,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D53" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6134,7 +6136,7 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I53" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6163,13 +6165,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="D54" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6189,7 +6191,7 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I54" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6218,13 +6220,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D55" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6244,7 +6246,7 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I55" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6273,13 +6275,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D56" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6328,7 +6330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E57" s="60"/>
       <c r="F57" s="73"/>
       <c r="G57" s="73"/>
@@ -6337,13 +6339,13 @@
       <c r="K57" s="73"/>
       <c r="L57" s="73"/>
     </row>
-    <row r="58" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" ref="C58:C88" ca="1" si="102">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="D58" s="3" t="e">
         <f t="shared" ref="D58:D88" ca="1" si="103">_xludf.XLOOKUP(C58,$W$3:$W$12,$X$3:$X$12,0)</f>
@@ -6363,7 +6365,7 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" ref="H58:H88" ca="1" si="106">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I58" s="6" t="e">
         <f t="shared" ref="I58:I88" ca="1" si="107">_xludf.XLOOKUP(H58,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
@@ -6389,13 +6391,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="D59" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6441,13 +6443,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="D60" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6467,7 +6469,7 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I60" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6493,13 +6495,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D61" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6519,7 +6521,7 @@
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I61" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6545,13 +6547,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D62" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6597,13 +6599,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D63" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6623,7 +6625,7 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I63" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6649,13 +6651,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D64" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6675,7 +6677,7 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I64" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6701,13 +6703,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="65" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D65" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6727,7 +6729,7 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="I65" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6753,13 +6755,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D66" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6805,13 +6807,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="D67" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6831,7 +6833,7 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I67" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6857,13 +6859,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D68" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6883,7 +6885,7 @@
       </c>
       <c r="H68" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I68" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6909,13 +6911,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D69" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6935,7 +6937,7 @@
       </c>
       <c r="H69" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="I69" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6961,13 +6963,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="D70" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7013,13 +7015,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C71" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="D71" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7039,7 +7041,7 @@
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="I71" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7065,7 +7067,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
@@ -7117,13 +7119,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="D73" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7143,7 +7145,7 @@
       </c>
       <c r="H73" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I73" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7169,7 +7171,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="74" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>26</v>
       </c>
@@ -7195,7 +7197,7 @@
       </c>
       <c r="H74" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I74" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7221,7 +7223,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>26</v>
       </c>
@@ -7273,13 +7275,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="D76" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7299,7 +7301,7 @@
       </c>
       <c r="H76" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I76" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7325,7 +7327,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>26</v>
       </c>
@@ -7351,7 +7353,7 @@
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I77" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7377,7 +7379,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="78" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>26</v>
       </c>
@@ -7429,13 +7431,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D79" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7455,7 +7457,7 @@
       </c>
       <c r="H79" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I79" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7481,13 +7483,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="D80" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7507,7 +7509,7 @@
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="I80" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7533,13 +7535,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="81" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C81" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="D81" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7559,7 +7561,7 @@
       </c>
       <c r="H81" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I81" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7585,7 +7587,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="82" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>26</v>
       </c>
@@ -7637,13 +7639,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="83" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="D83" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7663,7 +7665,7 @@
       </c>
       <c r="H83" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I83" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7689,13 +7691,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="84" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="D84" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7715,7 +7717,7 @@
       </c>
       <c r="H84" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I84" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7741,13 +7743,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="85" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D85" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7767,7 +7769,7 @@
       </c>
       <c r="H85" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="I85" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7793,13 +7795,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="86" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="D86" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7845,13 +7847,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="87" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="D87" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7871,7 +7873,7 @@
       </c>
       <c r="H87" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I87" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7897,7 +7899,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="88" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>26</v>
       </c>
@@ -7923,7 +7925,7 @@
       </c>
       <c r="H88" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I88" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7949,7 +7951,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -7966,7 +7968,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7981,14 +7983,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8008,7 +8010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>112</v>
       </c>

--- a/Small Instances/Small3.xlsx
+++ b/Small Instances/Small3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Small Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB899AC-58AA-4AFC-8159-CEACC65F5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516E317B-EE4A-47B2-B593-FB7B930F6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G2:G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1258,50 +1258,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F2" ca="1" si="1">C2*111.021</f>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="69">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K2" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1332,50 +1332,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:F3" ca="1" si="5">C3*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H6" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ref="J3:K3" ca="1" si="7">H3*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1408,50 +1408,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="8">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="9">C4*111.021</f>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="69">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -1478,50 +1478,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="69">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -1548,50 +1548,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="69">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D48" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="D49" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="D50" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D51" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="D52" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I52" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="D53" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="D54" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I54" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="D55" s="3" t="e">
         <f t="shared" ca="1" si="53"/>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="I55" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I56" s="6" t="e">
         <f t="shared" ca="1" si="56"/>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" ref="C58:C88" ca="1" si="102">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="D58" s="3" t="e">
         <f t="shared" ref="D58:D88" ca="1" si="103">_xludf.XLOOKUP(C58,$W$3:$W$12,$X$3:$X$12,0)</f>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" ref="H58:H88" ca="1" si="106">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I58" s="6" t="e">
         <f t="shared" ref="I58:I88" ca="1" si="107">_xludf.XLOOKUP(H58,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D59" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I59" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="D60" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="I60" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="D61" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="D62" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I62" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="D63" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I63" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D64" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="D65" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D66" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I66" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="D67" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="D68" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="H68" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I68" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="C69" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="D69" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="C70" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D70" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="C72" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D72" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="H72" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="I72" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="D73" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="H73" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="I73" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="H74" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="I74" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="C75" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D75" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="C76" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D76" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="H76" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="I76" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="C77" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="D77" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I77" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="C78" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="D78" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="C79" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D79" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="H79" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I79" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="C80" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="D80" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="C81" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="D81" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="H81" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="I81" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C82" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="D82" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="H82" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="I82" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="D83" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="H83" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I83" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="D84" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="D85" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="D86" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="H86" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="I86" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="C87" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="D87" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="H87" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="I87" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="D88" s="3" t="e">
         <f t="shared" ca="1" si="103"/>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="H88" s="3" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="I88" s="6" t="e">
         <f t="shared" ca="1" si="107"/>
